--- a/04-user-study/quantPerfomance.xlsx
+++ b/04-user-study/quantPerfomance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daveberth\Documents\Uni\practical-seminar\04-user-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F6B047A-E661-4273-9980-D47095ECABDA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF557B4-BDAC-4E0F-82AC-B5C3B14F7777}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="-110" windowWidth="37340" windowHeight="21820" xr2:uid="{DD0B589B-077A-42A2-BE2C-AAEEAABE2DEB}"/>
+    <workbookView xWindow="1170" yWindow="-110" windowWidth="37340" windowHeight="21820" activeTab="4" xr2:uid="{DD0B589B-077A-42A2-BE2C-AAEEAABE2DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="MODEL_0_T" sheetId="1" r:id="rId1"/>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FDC870-5310-4D4A-A402-11B896DB53D1}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
@@ -3047,8 +3047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B349C3A7-D9E5-4070-A3F2-7F94086902FF}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
